--- a/pred_ohlcv/54_21/2020-01-23 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>736100.0108</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>736100.0108</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>712100.0108</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1024256.9741</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1050453.514835772</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1054115.679197042</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>368527.5973583108</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>361058.1928583108</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>234406.6227583108</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>234463.0668583108</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>234421.9190583108</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>105032.8519583108</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-430725.0525416891</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-449525.0525416891</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-539645.6800416892</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 SNT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1050453.514835772</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1054115.679197042</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>105032.8519583108</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>189997.5517583108</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>46633.17535831085</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-430725.0525416891</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-539645.6800416892</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
